--- a/fire_incident_db.xlsx
+++ b/fire_incident_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0da2ceee5f16d5ca/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{659966C5-50A2-4AC7-ADA6-98B53B0EEB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{693352E8-30F2-4EF8-B3B4-D086241074A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidents" sheetId="1" r:id="rId1"/>
@@ -28,29 +28,14 @@
     <sheet name="List_UnitTypes" sheetId="13" r:id="rId13"/>
     <sheet name="List_Actions" sheetId="14" r:id="rId14"/>
     <sheet name="List_States" sheetId="15" r:id="rId15"/>
+    <sheet name="Users" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="213">
   <si>
     <t>IncidentNumber</t>
   </si>
@@ -106,6 +91,30 @@
     <t>NarrativeSummary</t>
   </si>
   <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Narrative</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>SubmittedAt</t>
+  </si>
+  <si>
+    <t>ReviewedBy</t>
+  </si>
+  <si>
+    <t>ReviewedAt</t>
+  </si>
+  <si>
+    <t>ReviewerComments</t>
+  </si>
+  <si>
     <t>PropertyUse</t>
   </si>
   <si>
@@ -133,9 +142,6 @@
     <t>CauseDetermination</t>
   </si>
   <si>
-    <t>Narrative</t>
-  </si>
-  <si>
     <t>DispatchTime</t>
   </si>
   <si>
@@ -154,6 +160,18 @@
     <t>OnSceneMinutes</t>
   </si>
   <si>
+    <t>Alarm</t>
+  </si>
+  <si>
+    <t>Enroute</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
     <t>PersonnelID</t>
   </si>
   <si>
@@ -166,12 +184,24 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>ApparatusID</t>
   </si>
   <si>
     <t>Primary</t>
   </si>
   <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>UnitType</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
     <t>Action</t>
   </si>
   <si>
@@ -190,18 +220,36 @@
     <t>Active</t>
   </si>
   <si>
+    <t>UnitNumber</t>
+  </si>
+  <si>
+    <t>Badge</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
     <t>CallSign</t>
   </si>
   <si>
-    <t>UnitType</t>
-  </si>
-  <si>
     <t>SeatingCapacity</t>
   </si>
   <si>
     <t>Station</t>
   </si>
   <si>
+    <t>GPM</t>
+  </si>
+  <si>
+    <t>TankSize</t>
+  </si>
+  <si>
     <t>Structure Fire</t>
   </si>
   <si>
@@ -229,21 +277,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Code 1 (Cold)</t>
   </si>
   <si>
@@ -292,9 +325,6 @@
     <t>Tender</t>
   </si>
   <si>
-    <t>Actions</t>
-  </si>
-  <si>
     <t>Size-up</t>
   </si>
   <si>
@@ -482,6 +512,168 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Member User</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Tuner</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Arbogast</t>
+  </si>
+  <si>
+    <t>Adamson</t>
+  </si>
+  <si>
+    <t>Marple</t>
+  </si>
+  <si>
+    <t>McDonald</t>
+  </si>
+  <si>
+    <t>Pennington</t>
+  </si>
+  <si>
+    <t>Cunningham</t>
+  </si>
+  <si>
+    <t>Rohraugh</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Fortney</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>Ketterman</t>
+  </si>
+  <si>
+    <t>Clatterbuck</t>
+  </si>
+  <si>
+    <t>Clarence</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Sammy</t>
+  </si>
+  <si>
+    <t>Johnathan</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Wade</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Charlene</t>
+  </si>
+  <si>
+    <t>Rachael</t>
+  </si>
+  <si>
+    <t>Jeremiah</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Tanner</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>Gabe</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Ass. Chief</t>
+  </si>
+  <si>
+    <t>Cpt</t>
+  </si>
+  <si>
+    <t>Lt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF </t>
   </si>
 </sst>
 </file>
@@ -499,8 +691,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -561,9 +755,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -601,7 +795,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -635,6 +829,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -669,9 +864,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -845,30 +1041,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="18" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,39 +1102,33 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>List_IncidentType!$A$2:$A$200</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>List_AlarmLevel!$A$2:$A$200</xm:f>
-          </x14:formula1>
-          <xm:sqref>M2:M1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>List_ResponsePriority!$A$2:$A$200</xm:f>
-          </x14:formula1>
-          <xm:sqref>N2:N1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>List_States!$A$2:$A$200</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I1000</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -973,32 +1146,32 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>59</v>
+      <c r="A2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
+      <c r="A3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>61</v>
+      <c r="A4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
+      <c r="A5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
+      <c r="A6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1017,21 +1190,21 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1045,41 +1218,41 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1093,51 +1266,51 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1151,71 +1324,71 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1229,261 +1402,342 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1491,340 +1745,705 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="5" width="12" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
-          <x14:formula1>
-            <xm:f>List_PersonnelRoles!$A$2:$A$200</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C2000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
-          <x14:formula1>
-            <xm:f>Personnel!$A$2:$A$1000</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B2000</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="4" width="12" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C2000" xr:uid="{00000000-0002-0000-0400-000001000000}">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
-          <x14:formula1>
-            <xm:f>Apparatus!$A$2:$A$1000</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B2000</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
-          <x14:formula1>
-            <xm:f>List_Actions!$A$2:$A$200</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B2000</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4302</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4304</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4305</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H6">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4306</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4307</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4308</v>
+      </c>
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4309</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4311</v>
+      </c>
+      <c r="B12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4312</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4313</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4314</v>
+      </c>
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4315</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4316</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4317</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" t="s">
+        <v>212</v>
+      </c>
+      <c r="H18">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4318</v>
+      </c>
+      <c r="B19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4319</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H20">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4320</v>
+      </c>
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H21">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4321</v>
+      </c>
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H22">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4322</v>
+      </c>
+      <c r="B23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" t="s">
+        <v>212</v>
+      </c>
+      <c r="H23">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4323</v>
+      </c>
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4324</v>
+      </c>
+      <c r="H25">
+        <v>4324</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="6" width="12" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1843,50 +2462,50 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fire_incident_db.xlsx
+++ b/fire_incident_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0da2ceee5f16d5ca/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{693352E8-30F2-4EF8-B3B4-D086241074A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{659966C5-50A2-4AC7-ADA6-98B53B0EEB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidents" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,29 @@
     <sheet name="List_UnitTypes" sheetId="13" r:id="rId13"/>
     <sheet name="List_Actions" sheetId="14" r:id="rId14"/>
     <sheet name="List_States" sheetId="15" r:id="rId15"/>
-    <sheet name="Users" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="144">
   <si>
     <t>IncidentNumber</t>
   </si>
@@ -91,57 +106,36 @@
     <t>NarrativeSummary</t>
   </si>
   <si>
-    <t>PostalCode</t>
+    <t>PropertyUse</t>
+  </si>
+  <si>
+    <t>AreaOfOrigin</t>
+  </si>
+  <si>
+    <t>HeatSource</t>
+  </si>
+  <si>
+    <t>EquipmentInvolved</t>
+  </si>
+  <si>
+    <t>IgnitionFactor</t>
+  </si>
+  <si>
+    <t>Hazards</t>
+  </si>
+  <si>
+    <t>PropertyLossUSD</t>
+  </si>
+  <si>
+    <t>ContentsLossUSD</t>
+  </si>
+  <si>
+    <t>CauseDetermination</t>
   </si>
   <si>
     <t>Narrative</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>CreatedBy</t>
-  </si>
-  <si>
-    <t>SubmittedAt</t>
-  </si>
-  <si>
-    <t>ReviewedBy</t>
-  </si>
-  <si>
-    <t>ReviewedAt</t>
-  </si>
-  <si>
-    <t>ReviewerComments</t>
-  </si>
-  <si>
-    <t>PropertyUse</t>
-  </si>
-  <si>
-    <t>AreaOfOrigin</t>
-  </si>
-  <si>
-    <t>HeatSource</t>
-  </si>
-  <si>
-    <t>EquipmentInvolved</t>
-  </si>
-  <si>
-    <t>IgnitionFactor</t>
-  </si>
-  <si>
-    <t>Hazards</t>
-  </si>
-  <si>
-    <t>PropertyLossUSD</t>
-  </si>
-  <si>
-    <t>ContentsLossUSD</t>
-  </si>
-  <si>
-    <t>CauseDetermination</t>
-  </si>
-  <si>
     <t>DispatchTime</t>
   </si>
   <si>
@@ -160,18 +154,6 @@
     <t>OnSceneMinutes</t>
   </si>
   <si>
-    <t>Alarm</t>
-  </si>
-  <si>
-    <t>Enroute</t>
-  </si>
-  <si>
-    <t>Arrival</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
     <t>PersonnelID</t>
   </si>
   <si>
@@ -184,147 +166,135 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>ApparatusID</t>
   </si>
   <si>
     <t>Primary</t>
   </si>
   <si>
-    <t>Unit</t>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Certifications</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>CallSign</t>
   </si>
   <si>
     <t>UnitType</t>
   </si>
   <si>
+    <t>SeatingCapacity</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Structure Fire</t>
+  </si>
+  <si>
+    <t>Vehicle Fire</t>
+  </si>
+  <si>
+    <t>Wildland Fire</t>
+  </si>
+  <si>
+    <t>Hazardous Materials</t>
+  </si>
+  <si>
+    <t>Rescue/Technical</t>
+  </si>
+  <si>
+    <t>Medical Assist</t>
+  </si>
+  <si>
+    <t>False Alarm</t>
+  </si>
+  <si>
+    <t>Good Intent</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Code 1 (Cold)</t>
+  </si>
+  <si>
+    <t>Code 2 (Urgent)</t>
+  </si>
+  <si>
+    <t>Code 3 (Lights/Siren)</t>
+  </si>
+  <si>
+    <t>PersonnelRoles</t>
+  </si>
+  <si>
+    <t>Officer</t>
+  </si>
+  <si>
+    <t>Driver/Engineer</t>
+  </si>
+  <si>
+    <t>Firefighter</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>Chief</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>UnitTypes</t>
+  </si>
+  <si>
+    <t>Engine</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>Rescue</t>
+  </si>
+  <si>
+    <t>Brush</t>
+  </si>
+  <si>
+    <t>Tender</t>
+  </si>
+  <si>
     <t>Actions</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>Certifications</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>UnitNumber</t>
-  </si>
-  <si>
-    <t>Badge</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>CallSign</t>
-  </si>
-  <si>
-    <t>SeatingCapacity</t>
-  </si>
-  <si>
-    <t>Station</t>
-  </si>
-  <si>
-    <t>GPM</t>
-  </si>
-  <si>
-    <t>TankSize</t>
-  </si>
-  <si>
-    <t>Structure Fire</t>
-  </si>
-  <si>
-    <t>Vehicle Fire</t>
-  </si>
-  <si>
-    <t>Wildland Fire</t>
-  </si>
-  <si>
-    <t>Hazardous Materials</t>
-  </si>
-  <si>
-    <t>Rescue/Technical</t>
-  </si>
-  <si>
-    <t>Medical Assist</t>
-  </si>
-  <si>
-    <t>False Alarm</t>
-  </si>
-  <si>
-    <t>Good Intent</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Code 1 (Cold)</t>
-  </si>
-  <si>
-    <t>Code 2 (Urgent)</t>
-  </si>
-  <si>
-    <t>Code 3 (Lights/Siren)</t>
-  </si>
-  <si>
-    <t>PersonnelRoles</t>
-  </si>
-  <si>
-    <t>Officer</t>
-  </si>
-  <si>
-    <t>Driver/Engineer</t>
-  </si>
-  <si>
-    <t>Firefighter</t>
-  </si>
-  <si>
-    <t>Medic</t>
-  </si>
-  <si>
-    <t>Chief</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>UnitTypes</t>
-  </si>
-  <si>
-    <t>Engine</t>
-  </si>
-  <si>
-    <t>Truck</t>
-  </si>
-  <si>
-    <t>Rescue</t>
-  </si>
-  <si>
-    <t>Brush</t>
-  </si>
-  <si>
-    <t>Tender</t>
-  </si>
-  <si>
     <t>Size-up</t>
   </si>
   <si>
@@ -512,168 +482,6 @@
   </si>
   <si>
     <t>WY</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>member</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Reviewer</t>
-  </si>
-  <si>
-    <t>Member</t>
-  </si>
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>Member User</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Tuner</t>
-  </si>
-  <si>
-    <t>Roy</t>
-  </si>
-  <si>
-    <t>Arbogast</t>
-  </si>
-  <si>
-    <t>Adamson</t>
-  </si>
-  <si>
-    <t>Marple</t>
-  </si>
-  <si>
-    <t>McDonald</t>
-  </si>
-  <si>
-    <t>Pennington</t>
-  </si>
-  <si>
-    <t>Cunningham</t>
-  </si>
-  <si>
-    <t>Rohraugh</t>
-  </si>
-  <si>
-    <t>Cooper</t>
-  </si>
-  <si>
-    <t>Fortney</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Ray</t>
-  </si>
-  <si>
-    <t>Gilbert</t>
-  </si>
-  <si>
-    <t>Ketterman</t>
-  </si>
-  <si>
-    <t>Clatterbuck</t>
-  </si>
-  <si>
-    <t>Clarence</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Sammy</t>
-  </si>
-  <si>
-    <t>Johnathan</t>
-  </si>
-  <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>Tyler</t>
-  </si>
-  <si>
-    <t>Lance</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Wade</t>
-  </si>
-  <si>
-    <t>Tony</t>
-  </si>
-  <si>
-    <t>Leon</t>
-  </si>
-  <si>
-    <t>Charlene</t>
-  </si>
-  <si>
-    <t>Rachael</t>
-  </si>
-  <si>
-    <t>Jeremiah</t>
-  </si>
-  <si>
-    <t>Logan</t>
-  </si>
-  <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>Tanner</t>
-  </si>
-  <si>
-    <t>Eli</t>
-  </si>
-  <si>
-    <t>Billy</t>
-  </si>
-  <si>
-    <t>Greg</t>
-  </si>
-  <si>
-    <t>Brad</t>
-  </si>
-  <si>
-    <t>Gabe</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Ass. Chief</t>
-  </si>
-  <si>
-    <t>Cpt</t>
-  </si>
-  <si>
-    <t>Lt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF </t>
   </si>
 </sst>
 </file>
@@ -691,10 +499,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -755,9 +561,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -795,7 +601,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -829,7 +635,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -864,10 +669,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1041,13 +845,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,33 +923,39 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>List_IncidentType!$A$2:$A$200</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L1000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>List_AlarmLevel!$A$2:$A$200</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M1000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>List_ResponsePriority!$A$2:$A$200</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N1000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>List_States!$A$2:$A$200</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I1000</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1146,32 +973,32 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1190,21 +1017,21 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1218,41 +1045,41 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1266,51 +1093,51 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1324,71 +1151,71 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1402,342 +1229,261 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1745,705 +1491,340 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="5" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>List_PersonnelRoles!$A$2:$A$200</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C2000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+          <x14:formula1>
+            <xm:f>Personnel!$A$2:$A$1000</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B2000</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C2000" xr:uid="{00000000-0002-0000-0400-000001000000}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+          <x14:formula1>
+            <xm:f>Apparatus!$A$2:$A$1000</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B2000</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+          <x14:formula1>
+            <xm:f>List_Actions!$A$2:$A$200</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B2000</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4301</v>
-      </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2">
-        <v>4301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4302</v>
-      </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H3">
-        <v>4302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4303</v>
-      </c>
-      <c r="B4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H4">
-        <v>4303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4304</v>
-      </c>
-      <c r="B5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5">
-        <v>4304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4305</v>
-      </c>
-      <c r="B6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H6">
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4306</v>
-      </c>
-      <c r="B7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7">
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4307</v>
-      </c>
-      <c r="B8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H8">
-        <v>4307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4308</v>
-      </c>
-      <c r="B9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H9">
-        <v>4308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4309</v>
-      </c>
-      <c r="B10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H10">
-        <v>4309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4310</v>
-      </c>
-      <c r="B11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H11">
-        <v>4310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4311</v>
-      </c>
-      <c r="B12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" t="s">
-        <v>212</v>
-      </c>
-      <c r="H12">
-        <v>4311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4312</v>
-      </c>
-      <c r="B13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13">
-        <v>4312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4313</v>
-      </c>
-      <c r="B14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" t="s">
-        <v>212</v>
-      </c>
-      <c r="H14">
-        <v>4313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4314</v>
-      </c>
-      <c r="B15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" t="s">
-        <v>212</v>
-      </c>
-      <c r="H15">
-        <v>4314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4315</v>
-      </c>
-      <c r="B16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" t="s">
-        <v>212</v>
-      </c>
-      <c r="H16">
-        <v>4315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4316</v>
-      </c>
-      <c r="B17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" t="s">
-        <v>212</v>
-      </c>
-      <c r="H17">
-        <v>4316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4317</v>
-      </c>
-      <c r="B18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" t="s">
-        <v>212</v>
-      </c>
-      <c r="H18">
-        <v>4317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4318</v>
-      </c>
-      <c r="B19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" t="s">
-        <v>212</v>
-      </c>
-      <c r="H19">
-        <v>4318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4319</v>
-      </c>
-      <c r="B20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" t="s">
-        <v>212</v>
-      </c>
-      <c r="H20">
-        <v>4319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4320</v>
-      </c>
-      <c r="B21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" t="s">
-        <v>212</v>
-      </c>
-      <c r="H21">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>4321</v>
-      </c>
-      <c r="B22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" t="s">
-        <v>212</v>
-      </c>
-      <c r="H22">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4322</v>
-      </c>
-      <c r="B23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" t="s">
-        <v>212</v>
-      </c>
-      <c r="H23">
-        <v>4322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4323</v>
-      </c>
-      <c r="B24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" t="s">
-        <v>212</v>
-      </c>
-      <c r="H24">
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4324</v>
-      </c>
-      <c r="H25">
-        <v>4324</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2462,50 +1843,50 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>